--- a/output/tables/methods_performance.xlsx
+++ b/output/tables/methods_performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paula/stats205_project/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CED9A34-34B1-1E43-9170-A24FD4507133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11FB58C-CE67-C244-A6FC-FADDD647175B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2600" windowWidth="25440" windowHeight="15000" xr2:uid="{D7F5471E-6EA9-6D47-9E61-092E236F21E1}"/>
+    <workbookView xWindow="-120" yWindow="560" windowWidth="25440" windowHeight="15000" xr2:uid="{D7F5471E-6EA9-6D47-9E61-092E236F21E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,23 +412,23 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1">
-        <v>1334</v>
+        <v>891</v>
       </c>
       <c r="C1">
-        <v>904</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -444,93 +444,105 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1718</v>
+        <v>1523</v>
       </c>
       <c r="C3">
-        <v>936</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1731</v>
+        <v>1718</v>
       </c>
       <c r="C4">
-        <v>906</v>
+        <v>936</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1779</v>
+        <v>1731</v>
       </c>
       <c r="C5">
-        <v>897</v>
+        <v>906</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1846</v>
+        <v>1779</v>
       </c>
       <c r="C6">
-        <v>980</v>
+        <v>897</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1919</v>
+        <v>1846</v>
       </c>
       <c r="C7">
-        <v>909</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>2029</v>
+        <v>1919</v>
       </c>
       <c r="C8">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>6565</v>
+        <v>1973</v>
       </c>
       <c r="C9">
-        <v>818</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2029</v>
+      </c>
+      <c r="C10">
+        <v>906</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>6565</v>
+      </c>
+      <c r="C11">
+        <v>818</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C9">
+  <sortState ref="A1:C12">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/tables/methods_performance.xlsx
+++ b/output/tables/methods_performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paula/stats205_project/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11FB58C-CE67-C244-A6FC-FADDD647175B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD120E5-8790-5C4B-9CB9-29673DAE4D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="560" windowWidth="25440" windowHeight="15000" xr2:uid="{D7F5471E-6EA9-6D47-9E61-092E236F21E1}"/>
+    <workbookView xWindow="-2920" yWindow="-18480" windowWidth="25440" windowHeight="15000" xr2:uid="{D7F5471E-6EA9-6D47-9E61-092E236F21E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,10 +436,10 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1366</v>
+        <v>1138</v>
       </c>
       <c r="C2">
-        <v>707</v>
+        <v>760</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -455,57 +455,57 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>1718</v>
+        <v>1600</v>
       </c>
       <c r="C4">
-        <v>936</v>
+        <v>878</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1731</v>
+        <v>1718</v>
       </c>
       <c r="C5">
-        <v>906</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1779</v>
+        <v>1731</v>
       </c>
       <c r="C6">
-        <v>897</v>
+        <v>906</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>1846</v>
+        <v>1779</v>
       </c>
       <c r="C7">
-        <v>980</v>
+        <v>897</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1919</v>
+        <v>1846</v>
       </c>
       <c r="C8">
-        <v>909</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -542,7 +542,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C12">
+  <sortState ref="A1:C11">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/tables/methods_performance.xlsx
+++ b/output/tables/methods_performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paula/stats205_project/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD120E5-8790-5C4B-9CB9-29673DAE4D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6C88A9-75CE-DE4B-8C97-FA7A40D69F0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2920" yWindow="-18480" windowWidth="25440" windowHeight="15000" xr2:uid="{D7F5471E-6EA9-6D47-9E61-092E236F21E1}"/>
+    <workbookView xWindow="40" yWindow="800" windowWidth="25440" windowHeight="15000" xr2:uid="{D7F5471E-6EA9-6D47-9E61-092E236F21E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,10 +425,10 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>891</v>
+        <v>931</v>
       </c>
       <c r="C1">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -513,7 +513,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="C9">
         <v>430</v>
@@ -527,7 +527,7 @@
         <v>2029</v>
       </c>
       <c r="C10">
-        <v>906</v>
+        <v>838</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
